--- a/Tập luật.xlsx
+++ b/Tập luật.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Hệ Chuyên Gia\BTL_HCG_Nhom7\He-Chuyen-Gia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="88">
   <si>
     <t>Sản phẩm</t>
   </si>
@@ -145,12 +150,147 @@
   </si>
   <si>
     <t>Samsung Galaxy A51</t>
+  </si>
+  <si>
+    <t>OPPO A15s</t>
+  </si>
+  <si>
+    <t>OPPO A54</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <t>3.990.000</t>
+  </si>
+  <si>
+    <t>4.690.000</t>
+  </si>
+  <si>
+    <t>trần viền</t>
+  </si>
+  <si>
+    <t>OPPO A74</t>
+  </si>
+  <si>
+    <t>6.690.000</t>
+  </si>
+  <si>
+    <t>OPPO Reno4</t>
+  </si>
+  <si>
+    <t>6.490.000</t>
+  </si>
+  <si>
+    <t>OPPO A93</t>
+  </si>
+  <si>
+    <t>5.990.000</t>
+  </si>
+  <si>
+    <t>OPPO Reno5</t>
+  </si>
+  <si>
+    <t>8.690.000</t>
+  </si>
+  <si>
+    <t>OPPO Reno6 5G</t>
+  </si>
+  <si>
+    <t>12.990.000</t>
+  </si>
+  <si>
+    <t>OPPO Reno6 Z 5G</t>
+  </si>
+  <si>
+    <t>OPPO Reno4 Pro</t>
+  </si>
+  <si>
+    <t>9.990.000</t>
+  </si>
+  <si>
+    <t>9.490.000</t>
+  </si>
+  <si>
+    <t>OPPO Reno5 marvel</t>
+  </si>
+  <si>
+    <t>9.690.000</t>
+  </si>
+  <si>
+    <t>OPPO A94</t>
+  </si>
+  <si>
+    <t>7.690.000</t>
+  </si>
+  <si>
+    <t>OPPO Find X3 Pro 5G</t>
+  </si>
+  <si>
+    <t>26.990.000</t>
+  </si>
+  <si>
+    <t> OPPO Reno5 5G</t>
+  </si>
+  <si>
+    <t>Vsmart Star 5</t>
+  </si>
+  <si>
+    <t> Vsmart Joy 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vsmart </t>
+  </si>
+  <si>
+    <t>3.290.000</t>
+  </si>
+  <si>
+    <t>2.790.000</t>
+  </si>
+  <si>
+    <t>Vsmart Aris </t>
+  </si>
+  <si>
+    <t>Vsmart Aris Pro</t>
+  </si>
+  <si>
+    <t>Vsmart Star 4</t>
+  </si>
+  <si>
+    <t>Vsmart Star 4 </t>
+  </si>
+  <si>
+    <t>1.890.000</t>
+  </si>
+  <si>
+    <t>Vsmart Joy 4</t>
+  </si>
+  <si>
+    <t>3.090.000</t>
+  </si>
+  <si>
+    <t>Vsmart Live 4</t>
+  </si>
+  <si>
+    <t>3.390.000</t>
+  </si>
+  <si>
+    <t>Mặt kính lưng</t>
+  </si>
+  <si>
+    <t>8.490.000</t>
+  </si>
+  <si>
+    <t>10.660.000</t>
+  </si>
+  <si>
+    <t>OPPO Reno5 5G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,23 +404,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,10 +426,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -296,13 +438,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,6 +457,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,7 +508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,7 +543,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,333 +752,1520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X10"/>
+  <dimension ref="A3:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="12" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="11" t="s">
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="7" t="s">
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y47" s="13"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y48" s="13"/>
+    </row>
+    <row r="49" spans="25:25" x14ac:dyDescent="0.3">
+      <c r="Y49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -939,22 +2274,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G5"/>
+  <dimension ref="B2:H65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -974,8 +2310,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
@@ -994,8 +2330,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
@@ -1014,8 +2350,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C5" t="s">
@@ -1033,6 +2369,608 @@
       <c r="G5" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="2:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" s="13"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="13"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H44" s="13"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1045,7 +2983,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tập luật.xlsx
+++ b/Tập luật.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="88">
   <si>
     <t>Sản phẩm</t>
   </si>
@@ -120,21 +120,12 @@
     <t>Ram</t>
   </si>
   <si>
-    <t>3.590.000</t>
-  </si>
-  <si>
     <t>Samsung Galaxy A20s</t>
   </si>
   <si>
-    <t>4.490.000</t>
-  </si>
-  <si>
     <t>Samsung Galaxy A12</t>
   </si>
   <si>
-    <t>4.290.000</t>
-  </si>
-  <si>
     <t>tràn viền</t>
   </si>
   <si>
@@ -147,75 +138,39 @@
     <t>OPPO</t>
   </si>
   <si>
-    <t>3.990.000</t>
-  </si>
-  <si>
-    <t>4.690.000</t>
-  </si>
-  <si>
     <t>trần viền</t>
   </si>
   <si>
     <t>OPPO A74</t>
   </si>
   <si>
-    <t>6.690.000</t>
-  </si>
-  <si>
     <t>OPPO Reno4</t>
   </si>
   <si>
-    <t>6.490.000</t>
-  </si>
-  <si>
     <t>OPPO A93</t>
   </si>
   <si>
-    <t>5.990.000</t>
-  </si>
-  <si>
     <t>OPPO Reno5</t>
   </si>
   <si>
-    <t>8.690.000</t>
-  </si>
-  <si>
     <t>OPPO Reno6 5G</t>
   </si>
   <si>
-    <t>12.990.000</t>
-  </si>
-  <si>
     <t>OPPO Reno6 Z 5G</t>
   </si>
   <si>
     <t>OPPO Reno4 Pro</t>
   </si>
   <si>
-    <t>9.990.000</t>
-  </si>
-  <si>
-    <t>9.490.000</t>
-  </si>
-  <si>
     <t>OPPO Reno5 marvel</t>
   </si>
   <si>
-    <t>9.690.000</t>
-  </si>
-  <si>
     <t>OPPO A94</t>
   </si>
   <si>
-    <t>7.690.000</t>
-  </si>
-  <si>
     <t>OPPO Find X3 Pro 5G</t>
   </si>
   <si>
-    <t>26.990.000</t>
-  </si>
-  <si>
     <t> OPPO Reno5 5G</t>
   </si>
   <si>
@@ -228,12 +183,6 @@
     <t xml:space="preserve">Vsmart </t>
   </si>
   <si>
-    <t>3.290.000</t>
-  </si>
-  <si>
-    <t>2.790.000</t>
-  </si>
-  <si>
     <t>Vsmart Aris </t>
   </si>
   <si>
@@ -246,30 +195,15 @@
     <t>Vsmart Star 4 </t>
   </si>
   <si>
-    <t>1.890.000</t>
-  </si>
-  <si>
     <t>Vsmart Joy 4</t>
   </si>
   <si>
-    <t>3.090.000</t>
-  </si>
-  <si>
     <t>Vsmart Live 4</t>
   </si>
   <si>
-    <t>3.390.000</t>
-  </si>
-  <si>
     <t>Mặt kính lưng</t>
   </si>
   <si>
-    <t>8.490.000</t>
-  </si>
-  <si>
-    <t>10.660.000</t>
-  </si>
-  <si>
     <t>OPPO Reno5 5G</t>
   </si>
   <si>
@@ -318,37 +252,34 @@
     <t>Samsung Galaxy A12 (4GB/128GB)</t>
   </si>
   <si>
-    <t>10.990.000</t>
-  </si>
-  <si>
-    <t>50.000.000</t>
-  </si>
-  <si>
     <t>mặt lưng kính</t>
   </si>
   <si>
-    <t>21.990.000</t>
-  </si>
-  <si>
-    <t>16.990.000</t>
-  </si>
-  <si>
-    <t>9.290.000</t>
-  </si>
-  <si>
-    <t>11.490.000</t>
-  </si>
-  <si>
-    <t>14.990.000</t>
-  </si>
-  <si>
-    <t>19.990.000</t>
-  </si>
-  <si>
-    <t>10.290.000</t>
-  </si>
-  <si>
-    <t>7.490.000</t>
+    <t>iPhone 12 64GB</t>
+  </si>
+  <si>
+    <t>iPhone 11 128GB</t>
+  </si>
+  <si>
+    <t>iPhone 12 mini 64GB</t>
+  </si>
+  <si>
+    <t>iPhone 12 mini 128GB</t>
+  </si>
+  <si>
+    <t>iPhone 11 256GB</t>
+  </si>
+  <si>
+    <t>iPhone 12 mini 256GB</t>
+  </si>
+  <si>
+    <t>iPhone 12 256GB</t>
+  </si>
+  <si>
+    <t>iPhone 12 128GB</t>
+  </si>
+  <si>
+    <t>iPhone 11 64GB</t>
   </si>
 </sst>
 </file>
@@ -468,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -486,6 +417,13 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,13 +449,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,65 +773,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Z44"/>
+  <dimension ref="A3:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="G25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S49" sqref="S49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="26"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="26"/>
+    <col min="17" max="17" width="9.140625" style="30"/>
+    <col min="21" max="21" width="9.140625" style="30"/>
     <col min="23" max="23" width="11" customWidth="1"/>
-    <col min="24" max="24" width="12" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="10" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -896,7 +851,7 @@
       <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -908,7 +863,7 @@
       <c r="K4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="23" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -923,7 +878,7 @@
       <c r="P4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="27" t="s">
         <v>18</v>
       </c>
       <c r="R4" s="8" t="s">
@@ -935,7 +890,7 @@
       <c r="T4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="27" t="s">
         <v>22</v>
       </c>
       <c r="V4" s="8" t="s">
@@ -960,26 +915,26 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="24" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="28"/>
       <c r="R5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="28"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -987,7 +942,7 @@
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -996,26 +951,26 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="28"/>
       <c r="R6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="U6" s="28"/>
       <c r="V6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1025,7 +980,7 @@
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -1034,26 +989,26 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="U7" s="28"/>
       <c r="V7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1063,7 +1018,7 @@
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -1072,26 +1027,26 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="28"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="U8" s="28"/>
       <c r="V8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1101,7 +1056,7 @@
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1110,11 +1065,11 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="24" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="1"/>
@@ -1123,13 +1078,13 @@
       <c r="P9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="1"/>
+      <c r="Q9" s="28"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="U9" s="28"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
@@ -1139,7 +1094,7 @@
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -1148,26 +1103,26 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="28"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="U10" s="28"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1" t="s">
@@ -1179,7 +1134,7 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -1188,26 +1143,26 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="Q11" s="28"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="U11" s="28"/>
       <c r="V11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1174,7 @@
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -1228,26 +1183,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="Q12" s="28"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="U12" s="28"/>
       <c r="V12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1214,7 @@
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -1268,26 +1223,26 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="Q13" s="28"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="28"/>
       <c r="V13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1254,7 @@
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -1308,11 +1263,11 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="24" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="1"/>
@@ -1321,13 +1276,13 @@
       <c r="P14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="28"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="U14" s="28"/>
       <c r="V14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1338,8 +1293,8 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="18" t="s">
-        <v>92</v>
+      <c r="B15" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>30</v>
@@ -1348,26 +1303,26 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="28"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="6"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1379,7 +1334,7 @@
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>30</v>
@@ -1388,26 +1343,26 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="1"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="28"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U16" s="1"/>
+      <c r="U16" s="28"/>
       <c r="V16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1417,49 +1372,49 @@
       <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="28"/>
+      <c r="V17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>30</v>
@@ -1468,26 +1423,26 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="28"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="28"/>
       <c r="V18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1499,7 +1454,7 @@
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -1508,26 +1463,26 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="28"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="U19" s="28"/>
       <c r="V19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1539,7 +1494,7 @@
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
@@ -1548,26 +1503,26 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="Q20" s="28"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="U20" s="28"/>
       <c r="V20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1579,7 +1534,7 @@
     <row r="21" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1588,26 +1543,26 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="29"/>
       <c r="R21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="U21" s="29"/>
       <c r="V21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1619,7 +1574,7 @@
     <row r="22" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1628,26 +1583,26 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="29"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="U22" s="29"/>
       <c r="V22" s="2" t="s">
         <v>30</v>
       </c>
@@ -1657,7 +1612,7 @@
     <row r="23" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1666,26 +1621,26 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="Q23" s="29"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="U23" s="29"/>
       <c r="V23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1695,7 +1650,7 @@
     <row r="24" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1704,26 +1659,26 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="Q24" s="29"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="U24" s="29"/>
       <c r="V24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1733,7 +1688,7 @@
     <row r="25" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1742,26 +1697,26 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="29"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="U25" s="29"/>
       <c r="V25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1771,7 +1726,7 @@
     <row r="26" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1780,36 +1735,36 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="29"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="U26" s="29"/>
       <c r="V26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1818,36 +1773,36 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="Q27" s="29"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="U27" s="29"/>
       <c r="V27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1856,36 +1811,36 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="Q28" s="29"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="U28" s="29"/>
       <c r="V28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1894,36 +1849,36 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="Q29" s="29"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="U29" s="29"/>
       <c r="V29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1932,26 +1887,26 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="Q30" s="29"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="U30" s="29"/>
       <c r="V30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1961,7 +1916,7 @@
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1970,36 +1925,36 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
+      <c r="L31" s="25"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
+      <c r="Q31" s="29"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="U31" s="29"/>
       <c r="V31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2008,36 +1963,36 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
+      <c r="L32" s="25"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+      <c r="Q32" s="29"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U32" s="2"/>
+      <c r="U32" s="29"/>
       <c r="V32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2046,11 +2001,11 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="25" t="s">
         <v>30</v>
       </c>
       <c r="M33" s="2"/>
@@ -2059,13 +2014,13 @@
       <c r="P33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" s="29"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U33" s="2"/>
+      <c r="U33" s="29"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2" t="s">
@@ -2075,7 +2030,7 @@
     <row r="34" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -2084,36 +2039,36 @@
         <v>30</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="L34" s="25"/>
       <c r="M34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="29" t="s">
         <v>30</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="U34" s="29"/>
       <c r="V34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2122,36 +2077,36 @@
         <v>30</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="L35" s="25"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="Q35" s="29"/>
       <c r="R35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="U35" s="29"/>
       <c r="V35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2160,62 +2115,62 @@
         <v>30</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
+      <c r="Q36" s="29"/>
       <c r="R36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="U36" s="29"/>
       <c r="V36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
+      <c r="L37" s="25"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+      <c r="Q37" s="29"/>
       <c r="R37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="U37" s="29"/>
       <c r="V37" s="2" t="s">
         <v>30</v>
       </c>
@@ -2225,7 +2180,7 @@
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2234,22 +2189,22 @@
         <v>30</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+      <c r="L38" s="25"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
+      <c r="Q38" s="29"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="U38" s="29"/>
       <c r="V38" s="2" t="s">
         <v>30</v>
       </c>
@@ -2259,7 +2214,7 @@
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2268,26 +2223,26 @@
         <v>30</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+      <c r="L39" s="25"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="Q39" s="29"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="U39" s="29"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2" t="s">
@@ -2297,7 +2252,7 @@
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2306,40 +2261,376 @@
         <v>30</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="Q40" s="29"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
+      <c r="U40" s="29"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" s="24"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Y42" s="5"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="24"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Y43" s="5"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="24"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="Y44" s="5"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L45" s="24"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" s="28"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U46" s="28"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U47" s="28"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="24"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2360,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,803 +2692,925 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
+      <c r="D3">
+        <v>3590000</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>64</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>4490000</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
+      <c r="D5">
+        <v>4290000</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+      <c r="D6">
+        <v>10990000</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>128</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="D7">
+        <v>50000000</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="D8">
+        <v>21990000</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>256</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
+      <c r="D9">
+        <v>16990000</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
+      <c r="D10">
+        <v>9290000</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
+      <c r="D11">
+        <v>11490000</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
+      <c r="D12">
+        <v>21990000</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="D13">
+        <v>12990000</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>256</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="D14">
+        <v>14990000</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>256</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
+      <c r="D15">
+        <v>19990000</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>256</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
+      <c r="D16">
+        <v>10290000</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>256</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
+      <c r="D17">
+        <v>7490000</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
+      <c r="D18">
+        <v>14990000</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3990000</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>64</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4690000</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>128</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6690000</v>
+      </c>
+      <c r="E21" s="4">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4">
+        <v>128</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6490000</v>
+      </c>
+      <c r="E22" s="4">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4">
+        <v>128</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5990000</v>
+      </c>
+      <c r="E23" s="4">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4">
+        <v>128</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D24" s="4">
+        <v>8690000</v>
+      </c>
+      <c r="E24" s="4">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4">
+        <v>128</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D25" s="4">
+        <v>12990000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>128</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D26" s="4">
+        <v>9490000</v>
+      </c>
+      <c r="E26" s="4">
+        <v>8</v>
+      </c>
+      <c r="F26" s="4">
+        <v>128</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="D27" s="4">
+        <v>9990000</v>
+      </c>
+      <c r="E27" s="4">
+        <v>8</v>
+      </c>
+      <c r="F27" s="4">
+        <v>256</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9690000</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4">
+        <v>128</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D29" s="4">
+        <v>7690000</v>
+      </c>
+      <c r="E29" s="4">
+        <v>8</v>
+      </c>
+      <c r="F29" s="4">
+        <v>128</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D30" s="4">
+        <v>10660000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4">
+        <v>128</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="D31" s="4">
+        <v>26990000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4">
+        <v>256</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>18</v>
+        <v>54</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1890000</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>32</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3090000</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>64</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3390000</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>64</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2790000</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4</v>
+      </c>
+      <c r="F35" s="4">
+        <v>64</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3290000</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4</v>
+      </c>
+      <c r="F36" s="4">
+        <v>64</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="D37" s="4">
+        <v>4690000</v>
+      </c>
+      <c r="E37" s="4">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4">
+        <v>128</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="4">
+        <v>8490000</v>
+      </c>
+      <c r="E38" s="4">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4">
+        <v>128</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>22990000</v>
+      </c>
+      <c r="E39" s="21">
+        <v>4</v>
+      </c>
+      <c r="F39" s="21">
+        <v>64</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>19990000</v>
+      </c>
+      <c r="E40" s="21">
+        <v>4</v>
+      </c>
+      <c r="F40" s="21">
+        <v>128</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5">
+        <v>18990000</v>
+      </c>
+      <c r="E41" s="5">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5">
+        <v>64</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="H39" s="5"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="C42" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="22">
+        <v>18990000</v>
+      </c>
+      <c r="E42" s="21">
+        <v>4</v>
+      </c>
+      <c r="F42" s="21">
+        <v>128</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="B43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="22">
+        <v>19990000</v>
+      </c>
+      <c r="E43" s="21">
+        <v>4</v>
+      </c>
+      <c r="F43" s="21">
+        <v>256</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="B44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="22">
+        <v>20990000</v>
+      </c>
+      <c r="E44" s="21">
+        <v>4</v>
+      </c>
+      <c r="F44" s="21">
+        <v>256</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
+      <c r="B45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="22">
+        <v>24990000</v>
+      </c>
+      <c r="E45" s="21">
+        <v>4</v>
+      </c>
+      <c r="F45" s="21">
+        <v>256</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
+      <c r="B46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="22">
+        <v>24990000</v>
+      </c>
+      <c r="E46" s="21">
+        <v>4</v>
+      </c>
+      <c r="F46" s="21">
+        <v>128</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="B47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="22">
+        <v>17490000</v>
+      </c>
+      <c r="E47" s="21">
+        <v>4</v>
+      </c>
+      <c r="F47" s="21">
+        <v>64</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -3318,17 +3731,333 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>8</v>
+      </c>
+      <c r="B35" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
+        <v>4</v>
+      </c>
+      <c r="B37" s="21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="21">
+        <v>4</v>
+      </c>
+      <c r="B38" s="21">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tập luật.xlsx
+++ b/Tập luật.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Hệ Chuyên Gia\BTL_HCG_Nhom7\He-Chuyen-Gia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="97">
   <si>
     <t>Sản phẩm</t>
   </si>
@@ -280,12 +285,39 @@
   </si>
   <si>
     <t>iPhone 11 64GB</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 9A</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t> Xiaomi Redmi 9T</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 10</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 10S</t>
+  </si>
+  <si>
+    <t> Xiaomi Redmi Note 8</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 9</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi Note 8</t>
+  </si>
+  <si>
+    <t>Xiaomi Redmi 9T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,6 +457,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,26 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,7 +561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,7 +596,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -773,69 +805,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Z49"/>
+  <dimension ref="A3:Z57"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="26"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="26"/>
-    <col min="17" max="17" width="9.140625" style="30"/>
-    <col min="21" max="21" width="9.140625" style="30"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="18"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="18"/>
+    <col min="17" max="17" width="9.109375" style="22"/>
+    <col min="21" max="21" width="9.109375" style="22"/>
     <col min="23" max="23" width="11" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20" t="s">
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="13" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -851,7 +883,7 @@
       <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -863,7 +895,7 @@
       <c r="K4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -878,7 +910,7 @@
       <c r="P4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="R4" s="8" t="s">
@@ -890,7 +922,7 @@
       <c r="T4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="V4" s="8" t="s">
@@ -903,7 +935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>29</v>
@@ -915,31 +947,31 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="24"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="28"/>
+      <c r="Q5" s="20"/>
       <c r="R5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="28"/>
+      <c r="U5" s="20"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>34</v>
@@ -951,33 +983,33 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="24"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="24"/>
+      <c r="L6" s="16"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="28"/>
+      <c r="Q6" s="20"/>
       <c r="R6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="28"/>
+      <c r="U6" s="20"/>
       <c r="V6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>35</v>
@@ -989,33 +1021,33 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="24"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="20"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T7" s="1"/>
-      <c r="U7" s="28"/>
+      <c r="U7" s="20"/>
       <c r="V7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>63</v>
@@ -1027,33 +1059,33 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="24"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="1"/>
-      <c r="Q8" s="28"/>
+      <c r="Q8" s="20"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T8" s="1"/>
-      <c r="U8" s="28"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>64</v>
@@ -1065,11 +1097,11 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="1"/>
@@ -1078,20 +1110,20 @@
       <c r="P9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q9" s="28"/>
+      <c r="Q9" s="20"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="28"/>
+      <c r="U9" s="20"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>65</v>
@@ -1103,26 +1135,26 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="24"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="24"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="Q10" s="28"/>
+      <c r="Q10" s="20"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U10" s="28"/>
+      <c r="U10" s="20"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1" t="s">
@@ -1131,7 +1163,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>66</v>
@@ -1143,26 +1175,26 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="24"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T11" s="1"/>
-      <c r="U11" s="28"/>
+      <c r="U11" s="20"/>
       <c r="V11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1171,7 +1203,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>67</v>
@@ -1183,26 +1215,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="24"/>
+      <c r="H12" s="16"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="24"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="28"/>
+      <c r="Q12" s="20"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T12" s="1"/>
-      <c r="U12" s="28"/>
+      <c r="U12" s="20"/>
       <c r="V12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1243,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>68</v>
@@ -1223,26 +1255,26 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="24"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="24"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="28"/>
+      <c r="Q13" s="20"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U13" s="28"/>
+      <c r="U13" s="20"/>
       <c r="V13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1283,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -1263,11 +1295,11 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="1"/>
@@ -1276,13 +1308,13 @@
       <c r="P14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q14" s="28"/>
+      <c r="Q14" s="20"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T14" s="1"/>
-      <c r="U14" s="28"/>
+      <c r="U14" s="20"/>
       <c r="V14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1323,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="10" t="s">
         <v>70</v>
@@ -1303,26 +1335,26 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="24"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K15" s="6"/>
-      <c r="L15" s="24"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="28"/>
+      <c r="Q15" s="20"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="28"/>
+      <c r="U15" s="20"/>
       <c r="V15" s="6" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1363,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>71</v>
@@ -1343,26 +1375,26 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="24"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="24"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P16" s="1"/>
-      <c r="Q16" s="28"/>
+      <c r="Q16" s="20"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U16" s="28"/>
+      <c r="U16" s="20"/>
       <c r="V16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1403,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>72</v>
@@ -1383,26 +1415,26 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="24"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="24"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="P17" s="11"/>
-      <c r="Q17" s="28"/>
+      <c r="Q17" s="20"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="U17" s="28"/>
+      <c r="U17" s="20"/>
       <c r="V17" s="11" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +1443,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
         <v>73</v>
@@ -1423,26 +1455,26 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="24"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="24"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P18" s="1"/>
-      <c r="Q18" s="28"/>
+      <c r="Q18" s="20"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="28"/>
+      <c r="U18" s="20"/>
       <c r="V18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1451,7 +1483,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>74</v>
@@ -1463,26 +1495,26 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="24"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="24"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="28"/>
+      <c r="Q19" s="20"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T19" s="1"/>
-      <c r="U19" s="28"/>
+      <c r="U19" s="20"/>
       <c r="V19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1491,7 +1523,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>75</v>
@@ -1503,26 +1535,26 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="24"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="24"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="28"/>
+      <c r="Q20" s="20"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="28"/>
+      <c r="U20" s="20"/>
       <c r="V20" s="1" t="s">
         <v>30</v>
       </c>
@@ -1531,7 +1563,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>37</v>
@@ -1543,26 +1575,26 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="25"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="29"/>
+      <c r="Q21" s="21"/>
       <c r="R21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="29"/>
+      <c r="U21" s="21"/>
       <c r="V21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1571,7 +1603,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
@@ -1583,33 +1615,33 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="25"/>
+      <c r="H22" s="17"/>
       <c r="I22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="25"/>
+      <c r="L22" s="17"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="29"/>
+      <c r="Q22" s="21"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T22" s="2"/>
-      <c r="U22" s="29"/>
+      <c r="U22" s="21"/>
       <c r="V22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>41</v>
@@ -1621,33 +1653,33 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="25"/>
+      <c r="H23" s="17"/>
       <c r="I23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="25"/>
+      <c r="L23" s="17"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P23" s="2"/>
-      <c r="Q23" s="29"/>
+      <c r="Q23" s="21"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T23" s="2"/>
-      <c r="U23" s="29"/>
+      <c r="U23" s="21"/>
       <c r="V23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>42</v>
@@ -1659,33 +1691,33 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="25"/>
+      <c r="H24" s="17"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="25"/>
+      <c r="L24" s="17"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P24" s="2"/>
-      <c r="Q24" s="29"/>
+      <c r="Q24" s="21"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T24" s="2"/>
-      <c r="U24" s="29"/>
+      <c r="U24" s="21"/>
       <c r="V24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>43</v>
@@ -1697,33 +1729,33 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="25"/>
+      <c r="H25" s="17"/>
       <c r="I25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="25"/>
+      <c r="L25" s="17"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="29"/>
+      <c r="Q25" s="21"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T25" s="2"/>
-      <c r="U25" s="29"/>
+      <c r="U25" s="21"/>
       <c r="V25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>44</v>
@@ -1735,33 +1767,33 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="25"/>
+      <c r="L26" s="17"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="29"/>
+      <c r="Q26" s="21"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T26" s="2"/>
-      <c r="U26" s="29"/>
+      <c r="U26" s="21"/>
       <c r="V26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>45</v>
@@ -1773,33 +1805,33 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="25"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="25"/>
+      <c r="L27" s="17"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="29"/>
+      <c r="Q27" s="21"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T27" s="2"/>
-      <c r="U27" s="29"/>
+      <c r="U27" s="21"/>
       <c r="V27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>46</v>
@@ -1811,33 +1843,33 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="25"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="25"/>
+      <c r="L28" s="17"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="29"/>
+      <c r="Q28" s="21"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T28" s="2"/>
-      <c r="U28" s="29"/>
+      <c r="U28" s="21"/>
       <c r="V28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>48</v>
@@ -1849,33 +1881,33 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="25"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="25"/>
+      <c r="L29" s="17"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="29"/>
+      <c r="Q29" s="21"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T29" s="2"/>
-      <c r="U29" s="29"/>
+      <c r="U29" s="21"/>
       <c r="V29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>49</v>
@@ -1887,33 +1919,33 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="25"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="25"/>
+      <c r="L30" s="17"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P30" s="2"/>
-      <c r="Q30" s="29"/>
+      <c r="Q30" s="21"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T30" s="2"/>
-      <c r="U30" s="29"/>
+      <c r="U30" s="21"/>
       <c r="V30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>51</v>
@@ -1925,33 +1957,33 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="25"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="25"/>
+      <c r="L31" s="17"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" s="29"/>
+      <c r="Q31" s="21"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T31" s="2"/>
-      <c r="U31" s="29"/>
+      <c r="U31" s="21"/>
       <c r="V31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>47</v>
@@ -1963,33 +1995,33 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="25"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="17"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P32" s="2"/>
-      <c r="Q32" s="29"/>
+      <c r="Q32" s="21"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U32" s="29"/>
+      <c r="U32" s="21"/>
       <c r="V32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>50</v>
@@ -2001,11 +2033,11 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="25"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="17" t="s">
         <v>30</v>
       </c>
       <c r="M33" s="2"/>
@@ -2014,20 +2046,20 @@
       <c r="P33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q33" s="29"/>
+      <c r="Q33" s="21"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U33" s="29"/>
+      <c r="U33" s="21"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
         <v>58</v>
@@ -2039,33 +2071,33 @@
         <v>30</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="25" t="s">
+      <c r="H34" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="25"/>
+      <c r="L34" s="17"/>
       <c r="M34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="29" t="s">
+      <c r="Q34" s="21" t="s">
         <v>30</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="29"/>
+      <c r="U34" s="21"/>
       <c r="V34" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
         <v>59</v>
@@ -2077,33 +2109,33 @@
         <v>30</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="25"/>
+      <c r="L35" s="17"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="29"/>
+      <c r="Q35" s="21"/>
       <c r="R35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="29"/>
+      <c r="U35" s="21"/>
       <c r="V35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>60</v>
@@ -2115,33 +2147,33 @@
         <v>30</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="25" t="s">
+      <c r="H36" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="25"/>
+      <c r="L36" s="17"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="29"/>
+      <c r="Q36" s="21"/>
       <c r="R36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="29"/>
+      <c r="U36" s="21"/>
       <c r="V36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
         <v>52</v>
@@ -2151,33 +2183,33 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="25" t="s">
+      <c r="H37" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="25"/>
+      <c r="L37" s="17"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="29"/>
+      <c r="Q37" s="21"/>
       <c r="R37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="29"/>
+      <c r="U37" s="21"/>
       <c r="V37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>53</v>
@@ -2189,29 +2221,29 @@
         <v>30</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="25" t="s">
+      <c r="H38" s="17" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="25"/>
+      <c r="L38" s="17"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="29"/>
+      <c r="Q38" s="21"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="29"/>
+      <c r="U38" s="21"/>
       <c r="V38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
         <v>55</v>
@@ -2223,33 +2255,33 @@
         <v>30</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="25"/>
+      <c r="H39" s="17"/>
       <c r="I39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="25"/>
+      <c r="L39" s="17"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P39" s="2"/>
-      <c r="Q39" s="29"/>
+      <c r="Q39" s="21"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T39" s="2"/>
-      <c r="U39" s="29"/>
+      <c r="U39" s="21"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>56</v>
@@ -2261,49 +2293,49 @@
         <v>30</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="25"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K40" s="2"/>
-      <c r="L40" s="25"/>
+      <c r="L40" s="17"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="2"/>
-      <c r="Q40" s="29"/>
+      <c r="Q40" s="21"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T40" s="2"/>
-      <c r="U40" s="29"/>
+      <c r="U40" s="21"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="24"/>
+      <c r="H41" s="16"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="24" t="s">
+      <c r="L41" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M41" s="1"/>
@@ -2312,51 +2344,51 @@
         <v>30</v>
       </c>
       <c r="P41" s="1"/>
-      <c r="Q41" s="28"/>
+      <c r="Q41" s="20"/>
       <c r="R41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="28"/>
+      <c r="U41" s="20"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="24"/>
+      <c r="H42" s="16"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L42" s="24"/>
+      <c r="L42" s="16"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="28"/>
+      <c r="Q42" s="20"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T42" s="1"/>
-      <c r="U42" s="28"/>
+      <c r="U42" s="20"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1" t="s">
@@ -2364,38 +2396,38 @@
       </c>
       <c r="Y42" s="5"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="24"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="24"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="28"/>
+      <c r="Q43" s="20"/>
       <c r="R43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="28"/>
+      <c r="U43" s="20"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1" t="s">
@@ -2403,38 +2435,38 @@
       </c>
       <c r="Y43" s="5"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="24"/>
+      <c r="H44" s="16"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="24"/>
+      <c r="L44" s="16"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="28"/>
+      <c r="Q44" s="20"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T44" s="1"/>
-      <c r="U44" s="28"/>
+      <c r="U44" s="20"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1" t="s">
@@ -2442,61 +2474,61 @@
       </c>
       <c r="Y44" s="5"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="24"/>
+      <c r="H45" s="16"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="24"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="28"/>
+      <c r="Q45" s="20"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U45" s="28"/>
+      <c r="U45" s="20"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="24"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="24" t="s">
+      <c r="L46" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M46" s="1"/>
@@ -2505,36 +2537,36 @@
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="28"/>
+      <c r="Q46" s="20"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U46" s="28"/>
+      <c r="U46" s="20"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="24"/>
+      <c r="H47" s="16"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="24" t="s">
+      <c r="L47" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M47" s="1"/>
@@ -2543,36 +2575,36 @@
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="28"/>
+      <c r="Q47" s="20"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U47" s="28"/>
+      <c r="U47" s="20"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="24"/>
+      <c r="H48" s="16"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="24" t="s">
+      <c r="L48" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M48" s="1"/>
@@ -2581,56 +2613,332 @@
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="28"/>
+      <c r="Q48" s="20"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T48" s="1"/>
-      <c r="U48" s="28"/>
+      <c r="U48" s="20"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="24"/>
+      <c r="H49" s="16"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L49" s="24"/>
+      <c r="L49" s="16"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="28"/>
+      <c r="Q49" s="20"/>
       <c r="R49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
-      <c r="U49" s="28"/>
+      <c r="U49" s="20"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" s="16"/>
+      <c r="I53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T53" s="2"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" s="16"/>
+      <c r="I54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" s="16"/>
+      <c r="I55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T55" s="2"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T56" s="2"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2649,23 +2957,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H60"/>
+  <dimension ref="B2:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>31</v>
       </c>
@@ -2685,7 +2993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2705,7 +3013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
@@ -2725,7 +3033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>77</v>
       </c>
@@ -2745,7 +3053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>63</v>
       </c>
@@ -2765,7 +3073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
@@ -2785,7 +3093,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>65</v>
       </c>
@@ -2805,7 +3113,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>66</v>
       </c>
@@ -2825,7 +3133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>67</v>
       </c>
@@ -2845,7 +3153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>68</v>
       </c>
@@ -2865,7 +3173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>69</v>
       </c>
@@ -2885,7 +3193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>70</v>
       </c>
@@ -2905,7 +3213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
@@ -2925,7 +3233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>72</v>
       </c>
@@ -2945,7 +3253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>73</v>
       </c>
@@ -2965,7 +3273,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
@@ -2985,7 +3293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>75</v>
       </c>
@@ -3005,7 +3313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
@@ -3026,7 +3334,7 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
@@ -3047,7 +3355,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
@@ -3068,7 +3376,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3089,7 +3397,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>43</v>
       </c>
@@ -3110,7 +3418,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>44</v>
       </c>
@@ -3131,7 +3439,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
@@ -3152,7 +3460,7 @@
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>46</v>
       </c>
@@ -3173,7 +3481,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
@@ -3194,7 +3502,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>48</v>
       </c>
@@ -3215,7 +3523,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
@@ -3236,7 +3544,7 @@
       </c>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>62</v>
       </c>
@@ -3257,7 +3565,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
@@ -3278,7 +3586,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>57</v>
       </c>
@@ -3299,7 +3607,7 @@
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>59</v>
       </c>
@@ -3320,7 +3628,7 @@
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>60</v>
       </c>
@@ -3341,7 +3649,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
@@ -3362,7 +3670,7 @@
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
@@ -3383,7 +3691,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>55</v>
       </c>
@@ -3404,7 +3712,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
@@ -3425,20 +3733,20 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D39">
         <v>22990000</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="13">
         <v>4</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="13">
         <v>64</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -3446,31 +3754,31 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D40">
         <v>19990000</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="13">
         <v>4</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="13">
         <v>128</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="5">
@@ -3487,20 +3795,20 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="14">
         <v>18990000</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="13">
         <v>4</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="13">
         <v>128</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -3508,20 +3816,20 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="14">
         <v>19990000</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="13">
         <v>4</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="13">
         <v>256</v>
       </c>
       <c r="G43" s="4" t="s">
@@ -3529,20 +3837,20 @@
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="14">
         <v>20990000</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="13">
         <v>4</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="13">
         <v>256</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -3550,20 +3858,20 @@
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="14">
         <v>24990000</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="13">
         <v>4</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="13">
         <v>256</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -3571,20 +3879,20 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="14">
         <v>24990000</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="13">
         <v>4</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="13">
         <v>128</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -3592,20 +3900,20 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="14">
         <v>17490000</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="13">
         <v>4</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="13">
         <v>64</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -3613,121 +3921,179 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1990000</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4">
+        <v>32</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3490000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>4</v>
+      </c>
+      <c r="F49" s="4">
+        <v>64</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4490000</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4</v>
+      </c>
+      <c r="F50" s="4">
+        <v>64</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4190000</v>
+      </c>
+      <c r="E51" s="4">
+        <v>4</v>
+      </c>
+      <c r="F51" s="4">
+        <v>128</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="4">
+        <v>4390000</v>
+      </c>
+      <c r="E52" s="4">
+        <v>4</v>
+      </c>
+      <c r="F52" s="4">
+        <v>64</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="4">
+        <v>5690000</v>
+      </c>
+      <c r="E53" s="4">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4">
+        <v>128</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="4">
+        <v>6290000</v>
+      </c>
+      <c r="E54" s="4">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4">
+        <v>128</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3743,9 +4109,9 @@
       <selection sqref="A1:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>4</v>
       </c>
@@ -3753,7 +4119,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3761,7 +4127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -3769,7 +4135,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -3777,7 +4143,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
@@ -3785,7 +4151,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3793,7 +4159,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -3801,7 +4167,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3809,7 +4175,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3817,7 +4183,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -3825,7 +4191,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3833,7 +4199,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3841,7 +4207,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3849,7 +4215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -3857,7 +4223,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -3865,7 +4231,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -3873,7 +4239,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -3881,7 +4247,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -3889,7 +4255,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -3897,7 +4263,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>8</v>
       </c>
@@ -3905,7 +4271,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>8</v>
       </c>
@@ -3913,7 +4279,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>8</v>
       </c>
@@ -3921,7 +4287,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>8</v>
       </c>
@@ -3929,7 +4295,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -3937,7 +4303,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>8</v>
       </c>
@@ -3945,7 +4311,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>8</v>
       </c>
@@ -3953,7 +4319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>8</v>
       </c>
@@ -3961,7 +4327,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>8</v>
       </c>
@@ -3969,7 +4335,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>12</v>
       </c>
@@ -3977,7 +4343,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>2</v>
       </c>
@@ -3985,7 +4351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>4</v>
       </c>
@@ -3993,7 +4359,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>4</v>
       </c>
@@ -4001,7 +4367,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>4</v>
       </c>
@@ -4009,7 +4375,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>4</v>
       </c>
@@ -4017,7 +4383,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>8</v>
       </c>
@@ -4025,7 +4391,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>8</v>
       </c>
@@ -4033,23 +4399,23 @@
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="13">
         <v>4</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="13">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="21">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
         <v>4</v>
       </c>
-      <c r="B38" s="21">
+      <c r="B38" s="13">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>4</v>
       </c>

--- a/Tập luật.xlsx
+++ b/Tập luật.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Hệ Chuyên Gia\BTL_HCG_Nhom7\He-Chuyen-Gia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$5:$X$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$B$2:$G$54</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="171">
   <si>
     <t>Sản phẩm</t>
   </si>
@@ -312,12 +311,234 @@
   </si>
   <si>
     <t>Xiaomi Redmi 9T</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +595,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,13 +658,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -460,23 +686,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,6 +718,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,7 +796,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -596,7 +831,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,176 +1040,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Z57"/>
+  <dimension ref="A3:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="18"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="18"/>
-    <col min="17" max="17" width="9.109375" style="22"/>
-    <col min="21" max="21" width="9.109375" style="22"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="26"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="26"/>
+    <col min="17" max="17" width="9.140625" style="26"/>
+    <col min="21" max="21" width="9.140625" style="26"/>
     <col min="23" max="23" width="11" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="29" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="30" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="23" t="s">
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="7" t="s">
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="V5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="W5" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="X5" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -983,36 +1254,36 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="16"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="U6" s="10"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
@@ -1021,36 +1292,38 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="16"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="16"/>
+      <c r="L7" s="10"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="20"/>
+      <c r="U7" s="10"/>
       <c r="V7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
@@ -1059,36 +1332,38 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="16"/>
+      <c r="L8" s="10"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T8" s="1"/>
-      <c r="U8" s="20"/>
+      <c r="U8" s="10"/>
       <c r="V8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1097,36 +1372,38 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="L9" s="10"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="20"/>
+      <c r="O9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" s="20"/>
-      <c r="V9" s="1"/>
+      <c r="S9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="W9" s="1"/>
-      <c r="X9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -1135,38 +1412,38 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="16"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="20"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="10"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U10" s="20"/>
+      <c r="U10" s="10"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
-        <v>66</v>
+    </row>
+    <row r="11" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -1175,38 +1452,40 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="16"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="16"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P11" s="1"/>
-      <c r="Q11" s="20"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="1"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
+      <c r="X11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -1215,38 +1494,40 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="16"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="16"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="10"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P12" s="1"/>
-      <c r="Q12" s="20"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T12" s="1"/>
-      <c r="U12" s="20"/>
+      <c r="U12" s="10"/>
       <c r="V12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>30</v>
@@ -1255,38 +1536,40 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="16"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P13" s="1"/>
-      <c r="Q13" s="20"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U13" s="20"/>
+      <c r="S13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="10"/>
       <c r="V13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -1295,198 +1578,208 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="16"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="L14" s="10"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="20"/>
+      <c r="O14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="20"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" s="10"/>
       <c r="V14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10" t="s">
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="6"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" s="20"/>
-      <c r="V15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" s="10"/>
+      <c r="V16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" s="20"/>
-      <c r="V16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" s="10"/>
+      <c r="V17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="U17" s="20"/>
-      <c r="V17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U18" s="20"/>
-      <c r="V18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
@@ -1495,38 +1788,40 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="16"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="16"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P19" s="1"/>
-      <c r="Q19" s="20"/>
+      <c r="Q19" s="10"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" s="1"/>
-      <c r="U19" s="20"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="10"/>
       <c r="V19" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4" t="s">
-        <v>75</v>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>30</v>
@@ -1535,78 +1830,82 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="16"/>
+      <c r="J20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="Q20" s="20"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="U20" s="20"/>
+      <c r="U20" s="10"/>
       <c r="V20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+    </row>
+    <row r="21" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1615,36 +1914,40 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H22" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="17"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="21"/>
+      <c r="U22" s="11"/>
       <c r="V22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1653,36 +1956,38 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="17"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="17"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="N23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="21"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T23" s="2"/>
-      <c r="U23" s="21"/>
+      <c r="U23" s="11"/>
       <c r="V23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1691,36 +1996,38 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="17"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="17"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P24" s="2"/>
-      <c r="Q24" s="21"/>
+      <c r="Q24" s="11"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T24" s="2"/>
-      <c r="U24" s="21"/>
+      <c r="U24" s="11"/>
       <c r="V24" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1729,36 +2036,38 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="17"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="17"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="21"/>
+      <c r="Q25" s="11"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T25" s="2"/>
-      <c r="U25" s="21"/>
+      <c r="U25" s="11"/>
       <c r="V25" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1767,36 +2076,38 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="17"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="21"/>
+      <c r="Q26" s="11"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T26" s="2"/>
-      <c r="U26" s="21"/>
+      <c r="U26" s="11"/>
       <c r="V26" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1805,36 +2116,38 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K27" s="2"/>
-      <c r="L27" s="17"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P27" s="2"/>
-      <c r="Q27" s="21"/>
+      <c r="Q27" s="11"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T27" s="2"/>
-      <c r="U27" s="21"/>
+      <c r="U27" s="11"/>
       <c r="V27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="B28" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1843,36 +2156,38 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="17"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K28" s="2"/>
-      <c r="L28" s="17"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P28" s="2"/>
-      <c r="Q28" s="21"/>
+      <c r="Q28" s="11"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T28" s="2"/>
-      <c r="U28" s="21"/>
+      <c r="U28" s="11"/>
       <c r="V28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1881,36 +2196,38 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="17"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K29" s="2"/>
-      <c r="L29" s="17"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P29" s="2"/>
-      <c r="Q29" s="21"/>
+      <c r="Q29" s="11"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T29" s="2"/>
-      <c r="U29" s="21"/>
+      <c r="U29" s="11"/>
       <c r="V29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1919,36 +2236,38 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="17"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P30" s="2"/>
-      <c r="Q30" s="21"/>
+      <c r="Q30" s="11"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T30" s="2"/>
-      <c r="U30" s="21"/>
+      <c r="U30" s="11"/>
       <c r="V30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:26" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1957,36 +2276,38 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="17"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="17"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P31" s="2"/>
-      <c r="Q31" s="21"/>
+      <c r="Q31" s="11"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T31" s="2"/>
-      <c r="U31" s="21"/>
+      <c r="U31" s="11"/>
       <c r="V31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1995,36 +2316,38 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="17"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P32" s="2"/>
-      <c r="Q32" s="21"/>
+      <c r="Q32" s="11"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U32" s="21"/>
+      <c r="S32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="11"/>
       <c r="V32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -2033,74 +2356,78 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="17"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="L33" s="11"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q33" s="21"/>
+      <c r="O33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="11"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U33" s="21"/>
-      <c r="V33" s="2"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="W33" s="2"/>
-      <c r="X33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="17" t="s">
-        <v>30</v>
-      </c>
+      <c r="H34" s="11"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="L34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="P34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="11"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="T34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" s="11"/>
+      <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
+      <c r="X34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2109,36 +2436,38 @@
         <v>30</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="17" t="s">
+      <c r="H35" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="21"/>
+      <c r="U35" s="11"/>
       <c r="V35" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
+    <row r="36" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -2147,106 +2476,116 @@
         <v>30</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="17" t="s">
+      <c r="H36" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="17"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="21"/>
+      <c r="Q36" s="11"/>
       <c r="R36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="21"/>
+      <c r="U36" s="11"/>
       <c r="V36" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
+    <row r="37" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="17"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="21"/>
+      <c r="Q37" s="11"/>
       <c r="R37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="21"/>
+      <c r="U37" s="11"/>
       <c r="V37" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="11" t="s">
         <v>30</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="17"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="N38" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="2"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="21"/>
+      <c r="U38" s="11"/>
       <c r="V38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="B39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -2255,36 +2594,34 @@
         <v>30</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H39" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="17"/>
+      <c r="L39" s="11"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="21"/>
+      <c r="Q39" s="11"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="2"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="W39" s="2"/>
-      <c r="X39" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -2293,74 +2630,78 @@
         <v>30</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="17"/>
+      <c r="L40" s="11"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P40" s="2"/>
-      <c r="Q40" s="21"/>
+      <c r="Q40" s="11"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T40" s="2"/>
-      <c r="U40" s="21"/>
+      <c r="U40" s="11"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
+    <row r="41" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="B41" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" s="2"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
@@ -2369,37 +2710,38 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="16"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" s="16"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="M42" s="1"/>
-      <c r="N42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="P42" s="1"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="U42" s="20"/>
+      <c r="U42" s="10"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y42" s="5"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
+    </row>
+    <row r="43" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
@@ -2408,37 +2750,39 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="16"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L43" s="16"/>
+      <c r="L43" s="10"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S43" s="1"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="T43" s="1"/>
-      <c r="U43" s="20"/>
+      <c r="U43" s="10"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y43" s="5"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
+      <c r="Y43" s="4"/>
+    </row>
+    <row r="44" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
@@ -2447,37 +2791,39 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="10"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="16"/>
+      <c r="L44" s="10"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="20"/>
+      <c r="U44" s="10"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y44" s="5"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
@@ -2486,36 +2832,39 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="16"/>
+      <c r="H45" s="10"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L45" s="16"/>
+      <c r="L45" s="10"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="20"/>
+      <c r="Q45" s="10"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U45" s="20"/>
+      <c r="S45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="10"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
+      <c r="Y45" s="4"/>
+    </row>
+    <row r="46" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
@@ -2524,36 +2873,38 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="16"/>
+      <c r="H46" s="10"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="16" t="s">
-        <v>30</v>
-      </c>
+      <c r="K46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L46" s="10"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="20"/>
+      <c r="Q46" s="10"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
       <c r="T46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U46" s="20"/>
+      <c r="U46" s="10"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
+    <row r="47" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
@@ -2562,11 +2913,11 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="16"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="10" t="s">
         <v>30</v>
       </c>
       <c r="M47" s="1"/>
@@ -2575,23 +2926,25 @@
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="20"/>
+      <c r="Q47" s="10"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
       <c r="T47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="U47" s="20"/>
+      <c r="U47" s="10"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
+    <row r="48" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
@@ -2600,11 +2953,11 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="16"/>
+      <c r="H48" s="10"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="16" t="s">
+      <c r="L48" s="10" t="s">
         <v>30</v>
       </c>
       <c r="M48" s="1"/>
@@ -2613,23 +2966,25 @@
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="20"/>
+      <c r="Q48" s="10"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T48" s="1"/>
-      <c r="U48" s="20"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U48" s="10"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
@@ -2638,72 +2993,78 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="16"/>
+      <c r="H49" s="10"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L49" s="16"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S49" s="1"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="T49" s="1"/>
-      <c r="U49" s="20"/>
+      <c r="U49" s="10"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="1"/>
+    <row r="50" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="B50" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="10"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2712,34 +3073,38 @@
       <c r="G51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="16" t="s">
+      <c r="H51" s="10" t="s">
         <v>30</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q51" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="20"/>
+      <c r="U51" s="10"/>
       <c r="V51" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+    </row>
+    <row r="52" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2748,34 +3113,38 @@
       <c r="G52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="H52" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="16"/>
+      <c r="L52" s="10"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
-      <c r="Q52" s="20"/>
+      <c r="Q52" s="10"/>
       <c r="R52" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="20"/>
+      <c r="U52" s="10"/>
       <c r="V52" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+    </row>
+    <row r="53" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2784,34 +3153,38 @@
       <c r="G53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H53" s="16"/>
+      <c r="H53" s="10"/>
       <c r="I53" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="16"/>
+      <c r="L53" s="10"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="20"/>
+      <c r="U53" s="10"/>
       <c r="V53" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+    </row>
+    <row r="54" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2820,32 +3193,36 @@
       <c r="G54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="16"/>
+      <c r="H54" s="10"/>
       <c r="I54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="16"/>
+      <c r="L54" s="10"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S54" s="2"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="T54" s="2"/>
-      <c r="U54" s="20"/>
+      <c r="U54" s="10"/>
       <c r="V54" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
+    </row>
+    <row r="55" spans="1:24" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>91</v>
       </c>
@@ -2856,34 +3233,38 @@
       <c r="G55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H55" s="16"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="16"/>
+      <c r="L55" s="10"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="N55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" s="2"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="20"/>
+      <c r="U55" s="10"/>
       <c r="V55" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="B56" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2892,55 +3273,100 @@
       <c r="G56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H56" s="16"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="2" t="s">
         <v>30</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="16"/>
+      <c r="L56" s="10"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P56" s="2"/>
-      <c r="Q56" s="20"/>
+      <c r="Q56" s="10"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2" t="s">
         <v>30</v>
       </c>
       <c r="T56" s="2"/>
-      <c r="U56" s="20"/>
+      <c r="U56" s="10"/>
       <c r="V56" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="2"/>
+      <c r="G57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="16"/>
+      <c r="L57" s="10"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="O57" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="P57" s="2"/>
-      <c r="Q57" s="20"/>
+      <c r="Q57" s="10"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
+      <c r="S57" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="T57" s="2"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="2"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="C5:X57"/>
   <mergeCells count="7">
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="B3:B4"/>
@@ -2959,1143 +3385,1144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>3590000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>64</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>4490000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>4290000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>128</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>10990000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>8</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>128</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>50000000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>256</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>21990000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>256</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>16990000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>128</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>9290000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>128</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>11490000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>256</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>21990000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>12</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>128</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>12990000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>8</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>256</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>14990000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>256</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>19990000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>256</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>10290000</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>8</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>256</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>7490000</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>128</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>14990000</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>8</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>128</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>3990000</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>4</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>64</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>4690000</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>4</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>128</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>6690000</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>8</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>128</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>6490000</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>8</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>128</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>5990000</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>8</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>128</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>8690000</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>8</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>128</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>12990000</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>8</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>128</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>9490000</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>8</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>128</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>9990000</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>8</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>256</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>9690000</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>8</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>128</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>7690000</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>8</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>128</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>10660000</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>8</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>128</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>26990000</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>12</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>256</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>1890000</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>32</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>3090000</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>4</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>64</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>3390000</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>4</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>64</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>2790000</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>4</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>64</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>3290000</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>4</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>64</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>4690000</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>8</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <v>128</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>8490000</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="2">
         <v>8</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <v>128</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>22990000</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="11">
         <v>4</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="11">
         <v>64</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>19990000</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="11">
         <v>4</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="11">
         <v>128</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="1">
         <v>18990000</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="1">
         <v>4</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="1">
         <v>64</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="10">
         <v>18990000</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="11">
         <v>4</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="11">
         <v>128</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="10">
         <v>19990000</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="11">
         <v>4</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="11">
         <v>256</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="10">
         <v>20990000</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="11">
         <v>4</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="11">
         <v>256</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="4" t="s">
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="10">
         <v>24990000</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="11">
         <v>4</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="11">
         <v>256</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="10">
         <v>24990000</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="11">
         <v>4</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="11">
         <v>128</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="10">
         <v>17490000</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="11">
         <v>4</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="11">
         <v>64</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="4" t="s">
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>1990000</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="2">
         <v>2</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <v>32</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="4" t="s">
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>3490000</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="2">
         <v>4</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="2">
         <v>64</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>4490000</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>4</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <v>64</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>4190000</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="2">
         <v>4</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <v>128</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="4" t="s">
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>4390000</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>4</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <v>64</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="4" t="s">
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>5690000</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>8</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="2">
         <v>128</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="4" t="s">
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>6290000</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>8</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="2">
         <v>128</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="5"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" s="5"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H59" s="5"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="H59" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:G54"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4109,9 +4536,9 @@
       <selection sqref="A1:B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>4</v>
       </c>
@@ -4119,7 +4546,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4127,7 +4554,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4135,7 +4562,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -4143,7 +4570,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>12</v>
       </c>
@@ -4151,7 +4578,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -4159,7 +4586,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8</v>
       </c>
@@ -4167,7 +4594,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4175,7 +4602,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4183,7 +4610,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>12</v>
       </c>
@@ -4191,7 +4618,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4199,7 +4626,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4207,7 +4634,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -4215,7 +4642,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -4223,7 +4650,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -4231,7 +4658,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -4239,187 +4666,187 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>4</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
         <v>8</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>8</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
         <v>8</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>8</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>8</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+    <row r="24" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
         <v>8</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>8</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>8</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>12</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>2</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>4</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>4</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>4</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>4</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>8</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>8</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
         <v>4</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
         <v>4</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>4</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>64</v>
       </c>
     </row>

--- a/Tập luật.xlsx
+++ b/Tập luật.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="173">
   <si>
     <t>Sản phẩm</t>
   </si>
@@ -683,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -757,6 +757,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -781,16 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AE58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,52 +1115,52 @@
     <col min="17" max="21" width="9.140625" style="30"/>
     <col min="22" max="22" width="9.140625" style="34"/>
     <col min="23" max="23" width="13" style="34" customWidth="1"/>
-    <col min="24" max="24" width="13" style="46" customWidth="1"/>
+    <col min="24" max="24" width="13" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="41" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42" t="s">
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="35" t="s">
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="35"/>
-      <c r="X3" s="43"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="35"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="37"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
@@ -1223,7 +1224,7 @@
       <c r="W4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="44"/>
+      <c r="X4" s="36"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -1291,7 +1292,7 @@
       <c r="W5" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="X5" s="44"/>
+      <c r="X5" s="36"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1334,25 +1335,25 @@
       <c r="X6" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="Y6" s="48" t="s">
+      <c r="Y6" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" s="48" t="s">
+      <c r="Z6" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="AA6" s="48" t="s">
+      <c r="AA6" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="AB6" s="48" t="s">
+      <c r="AB6" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="AC6" s="48" t="s">
+      <c r="AC6" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="AD6" s="47" t="s">
+      <c r="AD6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="AE6" s="47" t="s">
+      <c r="AE6" s="39" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1397,20 +1398,26 @@
       <c r="X7" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Y7" s="48" t="s">
+      <c r="Y7" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z7" s="48" t="s">
+      <c r="Z7" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="AA7" s="48" t="s">
+      <c r="AA7" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="AB7" s="48" t="s">
+      <c r="AB7" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="AC7" s="48" t="s">
+      <c r="AC7" s="40" t="s">
         <v>115</v>
+      </c>
+      <c r="AD7" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE7" s="49" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -1454,20 +1461,26 @@
       <c r="X8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Y8" s="48" t="s">
+      <c r="Y8" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" s="48" t="s">
+      <c r="Z8" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="AA8" s="48" t="s">
+      <c r="AA8" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="AB8" s="48" t="s">
+      <c r="AB8" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC8" s="48" t="s">
+      <c r="AC8" s="40" t="s">
         <v>115</v>
+      </c>
+      <c r="AD8" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE8" s="49" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1511,19 +1524,19 @@
       <c r="X9" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="Y9" s="48" t="s">
+      <c r="Y9" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z9" s="48" t="s">
+      <c r="Z9" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AA9" s="48" t="s">
+      <c r="AA9" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB9" s="48" t="s">
+      <c r="AB9" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC9" s="48" t="s">
+      <c r="AC9" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1568,19 +1581,25 @@
       <c r="X10" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Y10" s="48" t="s">
+      <c r="Y10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z10" s="48" t="s">
+      <c r="Z10" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="AA10" s="48" t="s">
+      <c r="AA10" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AB10" s="48" t="s">
+      <c r="AB10" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AC10" s="48" t="s">
+      <c r="AC10" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD10" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE10" s="49" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1625,19 +1644,25 @@
       <c r="X11" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="Y11" s="48" t="s">
+      <c r="Y11" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z11" s="48" t="s">
+      <c r="Z11" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="AA11" s="48" t="s">
+      <c r="AA11" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB11" s="48" t="s">
+      <c r="AB11" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AC11" s="48" t="s">
+      <c r="AC11" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD11" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE11" s="49" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1682,19 +1707,19 @@
       <c r="X12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="Y12" s="48" t="s">
+      <c r="Y12" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z12" s="48" t="s">
+      <c r="Z12" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="AA12" s="48" t="s">
+      <c r="AA12" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB12" s="48" t="s">
+      <c r="AB12" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC12" s="48" t="s">
+      <c r="AC12" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1739,19 +1764,19 @@
       <c r="X13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="Y13" s="48" t="s">
+      <c r="Y13" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z13" s="48" t="s">
+      <c r="Z13" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AA13" s="48" t="s">
+      <c r="AA13" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB13" s="48" t="s">
+      <c r="AB13" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC13" s="48" t="s">
+      <c r="AC13" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1796,19 +1821,19 @@
       <c r="X14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="Y14" s="48" t="s">
+      <c r="Y14" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z14" s="48" t="s">
+      <c r="Z14" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AA14" s="48" t="s">
+      <c r="AA14" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB14" s="48" t="s">
+      <c r="AB14" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AC14" s="48" t="s">
+      <c r="AC14" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1853,19 +1878,19 @@
       <c r="X15" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="Y15" s="48" t="s">
+      <c r="Y15" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z15" s="48" t="s">
+      <c r="Z15" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" s="48" t="s">
+      <c r="AA15" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="AB15" s="48" t="s">
+      <c r="AB15" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC15" s="48" t="s">
+      <c r="AC15" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1910,19 +1935,19 @@
       <c r="X16" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="Y16" s="48" t="s">
+      <c r="Y16" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z16" s="48" t="s">
+      <c r="Z16" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AA16" s="48" t="s">
+      <c r="AA16" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB16" s="48" t="s">
+      <c r="AB16" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AC16" s="48" t="s">
+      <c r="AC16" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1967,19 +1992,19 @@
       <c r="X17" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="Y17" s="48" t="s">
+      <c r="Y17" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z17" s="48" t="s">
+      <c r="Z17" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="AA17" s="48" t="s">
+      <c r="AA17" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB17" s="48" t="s">
+      <c r="AB17" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AC17" s="48" t="s">
+      <c r="AC17" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2024,19 +2049,19 @@
       <c r="X18" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="Y18" s="48" t="s">
+      <c r="Y18" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z18" s="48" t="s">
+      <c r="Z18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="AA18" s="48" t="s">
+      <c r="AA18" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB18" s="48" t="s">
+      <c r="AB18" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AC18" s="48" t="s">
+      <c r="AC18" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2081,19 +2106,19 @@
       <c r="X19" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="Y19" s="48" t="s">
+      <c r="Y19" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z19" s="48" t="s">
+      <c r="Z19" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AA19" s="48" t="s">
+      <c r="AA19" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB19" s="48" t="s">
+      <c r="AB19" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AC19" s="48" t="s">
+      <c r="AC19" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2138,19 +2163,19 @@
       <c r="X20" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="Y20" s="48" t="s">
+      <c r="Y20" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z20" s="48" t="s">
+      <c r="Z20" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="AA20" s="48" t="s">
+      <c r="AA20" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB20" s="48" t="s">
+      <c r="AB20" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC20" s="48" t="s">
+      <c r="AC20" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2195,19 +2220,19 @@
       <c r="X21" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="Y21" s="48" t="s">
+      <c r="Y21" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="Z21" s="48" t="s">
+      <c r="Z21" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="AA21" s="48" t="s">
+      <c r="AA21" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="AB21" s="48" t="s">
+      <c r="AB21" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC21" s="48" t="s">
+      <c r="AC21" s="40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2653,7 +2678,7 @@
       <c r="W32" s="33"/>
       <c r="X32" s="8"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2693,7 +2718,7 @@
       <c r="W33" s="33"/>
       <c r="X33" s="8"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2733,7 +2758,7 @@
       </c>
       <c r="X34" s="8"/>
     </row>
-    <row r="35" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2773,7 +2798,7 @@
       <c r="W35" s="33"/>
       <c r="X35" s="8"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2813,7 +2838,7 @@
       <c r="W36" s="33"/>
       <c r="X36" s="8"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2853,7 +2878,7 @@
       <c r="W37" s="33"/>
       <c r="X37" s="8"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2891,7 +2916,7 @@
       <c r="W38" s="33"/>
       <c r="X38" s="8"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2927,7 +2952,7 @@
       <c r="W39" s="33"/>
       <c r="X39" s="8"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
@@ -2967,7 +2992,7 @@
       </c>
       <c r="X40" s="8"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
@@ -3007,7 +3032,7 @@
       </c>
       <c r="X41" s="8"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>154</v>
       </c>
@@ -3045,9 +3070,9 @@
       <c r="W42" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X42" s="45"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X42" s="4"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>155</v>
       </c>
@@ -3085,10 +3110,9 @@
       <c r="W43" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="4"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X43" s="4"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>156</v>
       </c>
@@ -3126,10 +3150,9 @@
       <c r="W44" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="4"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>157</v>
       </c>
@@ -3167,10 +3190,9 @@
       <c r="W45" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X45" s="45"/>
-      <c r="Y45" s="4"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X45" s="4"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>158</v>
       </c>
@@ -3208,9 +3230,9 @@
       <c r="W46" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X46" s="45"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>159</v>
       </c>
@@ -3248,9 +3270,9 @@
       <c r="W47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X47" s="45"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -3288,7 +3310,7 @@
       <c r="W48" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X48" s="45"/>
+      <c r="X48" s="4"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -3328,7 +3350,7 @@
       <c r="W49" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X49" s="45"/>
+      <c r="X49" s="4"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -3368,7 +3390,7 @@
       <c r="W50" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X50" s="45"/>
+      <c r="X50" s="4"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3408,7 +3430,7 @@
         <v>29</v>
       </c>
       <c r="W51" s="32"/>
-      <c r="X51" s="45"/>
+      <c r="X51" s="4"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3448,7 +3470,7 @@
         <v>29</v>
       </c>
       <c r="W52" s="32"/>
-      <c r="X52" s="45"/>
+      <c r="X52" s="4"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -3488,7 +3510,7 @@
         <v>29</v>
       </c>
       <c r="W53" s="32"/>
-      <c r="X53" s="45"/>
+      <c r="X53" s="4"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -3528,7 +3550,7 @@
         <v>29</v>
       </c>
       <c r="W54" s="32"/>
-      <c r="X54" s="45"/>
+      <c r="X54" s="4"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -3568,7 +3590,7 @@
         <v>29</v>
       </c>
       <c r="W55" s="32"/>
-      <c r="X55" s="45"/>
+      <c r="X55" s="4"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -3608,7 +3630,7 @@
         <v>29</v>
       </c>
       <c r="W56" s="32"/>
-      <c r="X56" s="45"/>
+      <c r="X56" s="4"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -3648,7 +3670,7 @@
         <v>29</v>
       </c>
       <c r="W57" s="32"/>
-      <c r="X57" s="45"/>
+      <c r="X57" s="4"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
@@ -3674,7 +3696,7 @@
       <c r="U58" s="28"/>
       <c r="V58" s="33"/>
       <c r="W58" s="32"/>
-      <c r="X58" s="45"/>
+      <c r="X58" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="C5:W57"/>
@@ -4857,23 +4879,23 @@
     <row r="1" spans="4:11" ht="14.45" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:11" ht="14.45" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="44" t="s">
         <v>172</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="38"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
@@ -4892,7 +4914,7 @@
       <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" s="12"/>
@@ -5166,7 +5188,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="D27" s="1"/>
@@ -5178,7 +5200,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="D28" s="1"/>
@@ -5190,7 +5212,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="D29" s="1"/>
@@ -5202,7 +5224,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="D30" s="1"/>

--- a/Tập luật.xlsx
+++ b/Tập luật.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Hệ Chuyên Gia\BTL_HCG_Nhom7\He-Chuyen-Gia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="173">
   <si>
     <t>Sản phẩm</t>
   </si>
@@ -544,7 +549,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -767,6 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,7 +797,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,7 +863,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -887,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1096,71 +1107,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AE58"/>
+  <dimension ref="A3:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF32" sqref="AF32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.42578125" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="20"/>
-    <col min="8" max="8" width="9.140625" style="23"/>
-    <col min="9" max="9" width="13.7109375" style="23" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="23"/>
-    <col min="13" max="16" width="9.140625" style="27"/>
-    <col min="17" max="21" width="9.140625" style="30"/>
-    <col min="22" max="22" width="9.140625" style="34"/>
+    <col min="2" max="2" width="34.44140625" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="20"/>
+    <col min="8" max="8" width="9.109375" style="23"/>
+    <col min="9" max="9" width="13.6640625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="23"/>
+    <col min="13" max="16" width="9.109375" style="27"/>
+    <col min="17" max="21" width="9.109375" style="30"/>
+    <col min="22" max="22" width="9.109375" style="34"/>
     <col min="23" max="23" width="13" style="34" customWidth="1"/>
     <col min="24" max="24" width="13" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48" t="s">
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="41" t="s">
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="41"/>
+      <c r="W3" s="42"/>
       <c r="X3" s="35"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="43"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1237,7 @@
       </c>
       <c r="X4" s="36"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="14" t="s">
@@ -1294,7 +1305,7 @@
       </c>
       <c r="X5" s="36"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
@@ -1357,7 +1368,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -1413,14 +1424,14 @@
       <c r="AC7" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="AD7" s="49" t="s">
+      <c r="AD7" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="AE7" s="49" t="s">
+      <c r="AE7" s="41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
@@ -1476,14 +1487,14 @@
       <c r="AC8" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="AD8" s="49" t="s">
+      <c r="AD8" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="AE8" s="49" t="s">
+      <c r="AE8" s="41" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -1540,7 +1551,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
@@ -1596,14 +1607,14 @@
       <c r="AC10" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="AD10" s="49" t="s">
+      <c r="AD10" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="AE10" s="49" t="s">
+      <c r="AE10" s="41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -1659,14 +1670,14 @@
       <c r="AC11" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="AD11" s="49" t="s">
+      <c r="AD11" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="AE11" s="49" t="s">
+      <c r="AE11" s="41" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>124</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -1780,7 +1791,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>126</v>
       </c>
@@ -1837,7 +1848,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
@@ -1894,7 +1905,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>128</v>
       </c>
@@ -1951,7 +1962,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>129</v>
       </c>
@@ -2008,7 +2019,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
@@ -2065,7 +2076,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>131</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>132</v>
       </c>
@@ -2179,7 +2190,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>133</v>
       </c>
@@ -2236,7 +2247,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>134</v>
       </c>
@@ -2274,11 +2285,33 @@
         <v>29</v>
       </c>
       <c r="W22" s="33"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y22" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z22" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA22" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB22" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC22" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD22" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE22" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF22" s="8"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>135</v>
       </c>
@@ -2316,9 +2349,32 @@
         <v>29</v>
       </c>
       <c r="W23" s="33"/>
-      <c r="X23" s="8"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y23" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z23" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA23" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB23" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC23" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD23" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE23" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>136</v>
       </c>
@@ -2356,9 +2412,26 @@
         <v>29</v>
       </c>
       <c r="W24" s="33"/>
-      <c r="X24" s="8"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y24" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z24" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA24" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB24" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC24" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>137</v>
       </c>
@@ -2396,9 +2469,26 @@
         <v>29</v>
       </c>
       <c r="W25" s="33"/>
-      <c r="X25" s="8"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y25" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z25" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA25" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB25" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC25" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>138</v>
       </c>
@@ -2436,9 +2526,26 @@
         <v>29</v>
       </c>
       <c r="W26" s="33"/>
-      <c r="X26" s="8"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y26" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z26" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA26" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB26" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC26" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>139</v>
       </c>
@@ -2476,9 +2583,26 @@
         <v>29</v>
       </c>
       <c r="W27" s="33"/>
-      <c r="X27" s="8"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X27" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y27" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z27" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA27" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB27" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC27" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>140</v>
       </c>
@@ -2516,9 +2640,26 @@
         <v>29</v>
       </c>
       <c r="W28" s="33"/>
-      <c r="X28" s="8"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y28" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z28" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA28" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB28" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC28" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -2556,9 +2697,26 @@
         <v>29</v>
       </c>
       <c r="W29" s="33"/>
-      <c r="X29" s="8"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y29" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z29" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA29" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB29" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC29" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -2596,9 +2754,26 @@
         <v>29</v>
       </c>
       <c r="W30" s="33"/>
-      <c r="X30" s="8"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y30" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z30" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA30" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB30" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC30" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -2636,9 +2811,26 @@
         <v>29</v>
       </c>
       <c r="W31" s="33"/>
-      <c r="X31" s="8"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y31" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z31" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA31" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB31" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC31" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2676,9 +2868,26 @@
         <v>29</v>
       </c>
       <c r="W32" s="33"/>
-      <c r="X32" s="8"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y32" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z32" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA32" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB32" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC32" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2716,9 +2925,32 @@
         <v>29</v>
       </c>
       <c r="W33" s="33"/>
-      <c r="X33" s="8"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y33" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z33" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA33" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB33" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC33" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD33" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE33" s="39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -2756,9 +2988,32 @@
       <c r="W34" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="X34" s="8"/>
-    </row>
-    <row r="35" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y34" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z34" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA34" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB34" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC34" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD34" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE34" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -2796,9 +3051,33 @@
         <v>29</v>
       </c>
       <c r="W35" s="33"/>
-      <c r="X35" s="8"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y35" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z35" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA35" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB35" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC35" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD35" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE35" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF35" s="8"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -2836,9 +3115,26 @@
         <v>29</v>
       </c>
       <c r="W36" s="33"/>
-      <c r="X36" s="8"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y36" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z36" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA36" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB36" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC36" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -2876,9 +3172,26 @@
         <v>29</v>
       </c>
       <c r="W37" s="33"/>
-      <c r="X37" s="8"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y37" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z37" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA37" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB37" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC37" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -2914,9 +3227,26 @@
         <v>29</v>
       </c>
       <c r="W38" s="33"/>
-      <c r="X38" s="8"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y38" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z38" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA38" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB38" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC38" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -2950,9 +3280,26 @@
         <v>29</v>
       </c>
       <c r="W39" s="33"/>
-      <c r="X39" s="8"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y39" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z39" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA39" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB39" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC39" s="50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
@@ -2990,9 +3337,33 @@
       <c r="W40" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="X40" s="8"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y40" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z40" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA40" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB40" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC40" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD40" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE40" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF40" s="8"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
@@ -3030,9 +3401,33 @@
       <c r="W41" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="X41" s="8"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y41" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z41" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA41" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB41" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC41" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD41" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE41" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF41" s="8"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>154</v>
       </c>
@@ -3072,7 +3467,7 @@
       </c>
       <c r="X42" s="4"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>155</v>
       </c>
@@ -3112,7 +3507,7 @@
       </c>
       <c r="X43" s="4"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>156</v>
       </c>
@@ -3152,7 +3547,7 @@
       </c>
       <c r="X44" s="4"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>157</v>
       </c>
@@ -3192,7 +3587,7 @@
       </c>
       <c r="X45" s="4"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>158</v>
       </c>
@@ -3232,7 +3627,7 @@
       </c>
       <c r="X46" s="4"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>159</v>
       </c>
@@ -3272,7 +3667,7 @@
       </c>
       <c r="X47" s="4"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -3312,7 +3707,7 @@
       </c>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>161</v>
       </c>
@@ -3352,7 +3747,7 @@
       </c>
       <c r="X49" s="4"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
@@ -3392,7 +3787,7 @@
       </c>
       <c r="X50" s="4"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>163</v>
       </c>
@@ -3432,7 +3827,7 @@
       <c r="W51" s="32"/>
       <c r="X51" s="4"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>164</v>
       </c>
@@ -3472,7 +3867,7 @@
       <c r="W52" s="32"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>165</v>
       </c>
@@ -3512,7 +3907,7 @@
       <c r="W53" s="32"/>
       <c r="X53" s="4"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>166</v>
       </c>
@@ -3552,7 +3947,7 @@
       <c r="W54" s="32"/>
       <c r="X54" s="4"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>167</v>
       </c>
@@ -3592,7 +3987,7 @@
       <c r="W55" s="32"/>
       <c r="X55" s="4"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -3632,7 +4027,7 @@
       <c r="W56" s="32"/>
       <c r="X56" s="4"/>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -3672,7 +4067,7 @@
       <c r="W57" s="32"/>
       <c r="X57" s="4"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="19"/>
@@ -3722,17 +4117,17 @@
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
@@ -3752,7 +4147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
@@ -3772,7 +4167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
@@ -3792,7 +4187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
@@ -3812,7 +4207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -3832,7 +4227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
@@ -3852,7 +4247,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
@@ -3872,7 +4267,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
@@ -3892,7 +4287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
@@ -3912,7 +4307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -3932,7 +4327,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
@@ -3952,7 +4347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>69</v>
       </c>
@@ -3972,7 +4367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
@@ -3992,7 +4387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>71</v>
       </c>
@@ -4012,7 +4407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
@@ -4032,7 +4427,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -4052,7 +4447,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
@@ -4072,7 +4467,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
@@ -4093,7 +4488,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
@@ -4114,7 +4509,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4135,7 +4530,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
@@ -4156,7 +4551,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
@@ -4177,7 +4572,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
@@ -4198,7 +4593,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
@@ -4219,7 +4614,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
@@ -4240,7 +4635,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
@@ -4261,7 +4656,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
@@ -4282,7 +4677,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
@@ -4303,7 +4698,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
@@ -4324,7 +4719,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
@@ -4345,7 +4740,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
@@ -4366,7 +4761,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
@@ -4387,7 +4782,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
@@ -4408,7 +4803,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
@@ -4429,7 +4824,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
@@ -4450,7 +4845,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
@@ -4471,7 +4866,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
@@ -4492,7 +4887,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
@@ -4513,7 +4908,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
@@ -4533,7 +4928,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
@@ -4554,7 +4949,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
@@ -4575,7 +4970,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
         <v>82</v>
       </c>
@@ -4596,7 +4991,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
         <v>83</v>
       </c>
@@ -4617,7 +5012,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
@@ -4638,7 +5033,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
@@ -4659,7 +5054,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
@@ -4680,7 +5075,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>87</v>
       </c>
@@ -4701,7 +5096,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
@@ -4722,7 +5117,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>92</v>
       </c>
@@ -4743,7 +5138,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>93</v>
       </c>
@@ -4764,7 +5159,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
@@ -4785,7 +5180,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>90</v>
       </c>
@@ -4806,7 +5201,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>91</v>
       </c>
@@ -4827,10 +5222,10 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="8"/>
       <c r="D56" s="4"/>
@@ -4839,7 +5234,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="8"/>
       <c r="D57" s="4"/>
@@ -4848,10 +5243,10 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H59" s="4"/>
     </row>
   </sheetData>
@@ -4863,39 +5258,37 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A4:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:11" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="4:11" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="44" t="s">
+    <row r="4" spans="4:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="45" t="s">
         <v>172</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44" t="s">
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="44"/>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D5" s="45"/>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
@@ -4914,9 +5307,9 @@
       <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="44"/>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D6" s="12"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4926,7 +5319,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4936,7 +5329,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -4946,7 +5339,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D9" s="12"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -4956,7 +5349,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D10" s="12"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -4966,7 +5359,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D11" s="12"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -4976,7 +5369,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D12" s="12"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -4986,7 +5379,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D13" s="12"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -4996,7 +5389,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D14" s="12"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5006,7 +5399,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D15" s="12"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -5016,7 +5409,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D16" s="12"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5026,7 +5419,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -5040,7 +5433,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -5054,7 +5447,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5068,7 +5461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
@@ -5084,7 +5477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
@@ -5100,7 +5493,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
@@ -5116,7 +5509,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="D23" s="1"/>
@@ -5134,7 +5527,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="D24" s="1"/>
@@ -5152,7 +5545,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="D25" s="1"/>
@@ -5170,7 +5563,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="D26" s="1"/>
@@ -5188,7 +5581,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="D27" s="1"/>
@@ -5200,7 +5593,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="D28" s="1"/>
@@ -5212,7 +5605,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="D29" s="1"/>
@@ -5224,7 +5617,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="D30" s="1"/>
@@ -5236,7 +5629,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="D31" s="1"/>
@@ -5248,7 +5641,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="D32" s="1"/>
@@ -5260,7 +5653,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="D33" s="1"/>
@@ -5272,7 +5665,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="D34" s="1"/>
@@ -5284,7 +5677,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="D35" s="1"/>
@@ -5296,7 +5689,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="D36" s="1"/>
@@ -5308,7 +5701,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="D37" s="1"/>
@@ -5320,7 +5713,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="D38" s="1"/>
@@ -5332,7 +5725,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="D39" s="1"/>
@@ -5344,7 +5737,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="D40" s="1"/>
@@ -5356,7 +5749,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="D41" s="1"/>
@@ -5368,7 +5761,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="D42" s="1"/>
@@ -5380,7 +5773,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="D43" s="1"/>
@@ -5392,7 +5785,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="D44" s="1"/>

--- a/Tập luật.xlsx
+++ b/Tập luật.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Hệ Chuyên Gia\BTL_HCG_Nhom7\He-Chuyen-Gia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\This PC\Desktop\Desk File\hcg\He-Chuyen-Gia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC626EA7-1859-424E-9F67-B3DCD68CF091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20112" windowHeight="8016"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="173">
   <si>
     <t>Sản phẩm</t>
   </si>
@@ -549,7 +550,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,7 +567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +619,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,6 +780,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,12 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,6 +904,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -931,6 +956,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1106,72 +1148,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:AF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AF32" sqref="AF32"/>
+    <sheetView tabSelected="1" topLeftCell="K34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="34.44140625" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="20"/>
-    <col min="8" max="8" width="9.109375" style="23"/>
-    <col min="9" max="9" width="13.6640625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="23"/>
-    <col min="13" max="16" width="9.109375" style="27"/>
-    <col min="17" max="21" width="9.109375" style="30"/>
-    <col min="22" max="22" width="9.109375" style="34"/>
+    <col min="2" max="2" width="34.453125" customWidth="1"/>
+    <col min="3" max="7" width="9.08984375" style="20"/>
+    <col min="8" max="8" width="9.08984375" style="23"/>
+    <col min="9" max="9" width="13.6328125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" style="23"/>
+    <col min="13" max="16" width="9.08984375" style="27"/>
+    <col min="17" max="21" width="9.08984375" style="30"/>
+    <col min="22" max="22" width="9.08984375" style="34"/>
     <col min="23" max="23" width="13" style="34" customWidth="1"/>
     <col min="24" max="24" width="13" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="48" t="s">
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="42" t="s">
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="W3" s="42"/>
+      <c r="W3" s="44"/>
       <c r="X3" s="35"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="44"/>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="47"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +1279,7 @@
       </c>
       <c r="X4" s="36"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="10"/>
       <c r="C5" s="14" t="s">
@@ -1305,7 +1347,7 @@
       </c>
       <c r="X5" s="36"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>118</v>
       </c>
@@ -1368,7 +1410,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>119</v>
       </c>
@@ -1431,7 +1473,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>120</v>
       </c>
@@ -1494,7 +1536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -1551,7 +1593,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
@@ -1614,7 +1656,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
@@ -1677,7 +1719,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>124</v>
       </c>
@@ -1734,7 +1776,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>125</v>
       </c>
@@ -1791,7 +1833,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>126</v>
       </c>
@@ -1848,7 +1890,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
@@ -1905,7 +1947,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>128</v>
       </c>
@@ -1962,7 +2004,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>129</v>
       </c>
@@ -2019,7 +2061,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>130</v>
       </c>
@@ -2076,7 +2118,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>131</v>
       </c>
@@ -2133,7 +2175,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>132</v>
       </c>
@@ -2190,7 +2232,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>133</v>
       </c>
@@ -2247,7 +2289,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>134</v>
       </c>
@@ -2291,27 +2333,27 @@
       <c r="Y22" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="Z22" s="50" t="s">
+      <c r="Z22" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AA22" s="50" t="s">
+      <c r="AA22" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AB22" s="50" t="s">
+      <c r="AB22" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="AC22" s="50" t="s">
+      <c r="AC22" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AD22" s="51" t="s">
+      <c r="AD22" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="AE22" s="51" t="s">
+      <c r="AE22" s="43" t="s">
         <v>101</v>
       </c>
       <c r="AF22" s="8"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>135</v>
       </c>
@@ -2358,13 +2400,13 @@
       <c r="Z23" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="AA23" s="50" t="s">
+      <c r="AA23" s="42" t="s">
         <v>107</v>
       </c>
       <c r="AB23" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC23" s="50" t="s">
+      <c r="AC23" s="42" t="s">
         <v>115</v>
       </c>
       <c r="AD23" s="39" t="s">
@@ -2374,7 +2416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>136</v>
       </c>
@@ -2427,11 +2469,11 @@
       <c r="AB24" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC24" s="50" t="s">
+      <c r="AC24" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>137</v>
       </c>
@@ -2484,11 +2526,11 @@
       <c r="AB25" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC25" s="50" t="s">
+      <c r="AC25" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>138</v>
       </c>
@@ -2541,11 +2583,11 @@
       <c r="AB26" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC26" s="50" t="s">
+      <c r="AC26" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>139</v>
       </c>
@@ -2598,11 +2640,11 @@
       <c r="AB27" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC27" s="50" t="s">
+      <c r="AC27" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>140</v>
       </c>
@@ -2655,11 +2697,11 @@
       <c r="AB28" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC28" s="50" t="s">
+      <c r="AC28" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
@@ -2712,11 +2754,11 @@
       <c r="AB29" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC29" s="50" t="s">
+      <c r="AC29" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -2769,11 +2811,11 @@
       <c r="AB30" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC30" s="50" t="s">
+      <c r="AC30" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>
@@ -2826,11 +2868,11 @@
       <c r="AB31" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC31" s="50" t="s">
+      <c r="AC31" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>144</v>
       </c>
@@ -2883,11 +2925,11 @@
       <c r="AB32" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="AC32" s="50" t="s">
+      <c r="AC32" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -2940,7 +2982,7 @@
       <c r="AB33" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AC33" s="50" t="s">
+      <c r="AC33" s="42" t="s">
         <v>115</v>
       </c>
       <c r="AD33" s="39" t="s">
@@ -2950,7 +2992,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>146</v>
       </c>
@@ -3003,7 +3045,7 @@
       <c r="AB34" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="AC34" s="50" t="s">
+      <c r="AC34" s="42" t="s">
         <v>117</v>
       </c>
       <c r="AD34" s="39" t="s">
@@ -3013,7 +3055,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>147</v>
       </c>
@@ -3057,27 +3099,27 @@
       <c r="Y35" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Z35" s="50" t="s">
+      <c r="Z35" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AA35" s="50" t="s">
+      <c r="AA35" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="AB35" s="50" t="s">
+      <c r="AB35" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="AC35" s="50" t="s">
+      <c r="AC35" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AD35" s="51" t="s">
+      <c r="AD35" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="AE35" s="51" t="s">
+      <c r="AE35" s="43" t="s">
         <v>106</v>
       </c>
       <c r="AF35" s="8"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>148</v>
       </c>
@@ -3121,20 +3163,20 @@
       <c r="Y36" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Z36" s="50" t="s">
+      <c r="Z36" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AA36" s="50" t="s">
+      <c r="AA36" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AB36" s="50" t="s">
+      <c r="AB36" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="AC36" s="50" t="s">
+      <c r="AC36" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>149</v>
       </c>
@@ -3178,20 +3220,20 @@
       <c r="Y37" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Z37" s="50" t="s">
+      <c r="Z37" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AA37" s="50" t="s">
+      <c r="AA37" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AB37" s="50" t="s">
+      <c r="AB37" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="AC37" s="50" t="s">
+      <c r="AC37" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
@@ -3233,20 +3275,20 @@
       <c r="Y38" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Z38" s="50" t="s">
+      <c r="Z38" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AA38" s="50" t="s">
+      <c r="AA38" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AB38" s="50" t="s">
+      <c r="AB38" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="AC38" s="50" t="s">
+      <c r="AC38" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>151</v>
       </c>
@@ -3286,20 +3328,20 @@
       <c r="Y39" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Z39" s="50" t="s">
+      <c r="Z39" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AA39" s="50" t="s">
+      <c r="AA39" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="AB39" s="50" t="s">
+      <c r="AB39" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="AC39" s="50" t="s">
+      <c r="AC39" s="42" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
@@ -3343,27 +3385,27 @@
       <c r="Y40" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Z40" s="50" t="s">
+      <c r="Z40" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="AA40" s="50" t="s">
+      <c r="AA40" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="AB40" s="50" t="s">
+      <c r="AB40" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AC40" s="50" t="s">
+      <c r="AC40" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AD40" s="51" t="s">
+      <c r="AD40" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="AE40" s="51" t="s">
+      <c r="AE40" s="43" t="s">
         <v>102</v>
       </c>
       <c r="AF40" s="8"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
@@ -3407,27 +3449,27 @@
       <c r="Y41" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Z41" s="50" t="s">
+      <c r="Z41" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="AA41" s="50" t="s">
+      <c r="AA41" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="AB41" s="50" t="s">
+      <c r="AB41" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AC41" s="50" t="s">
+      <c r="AC41" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="AD41" s="51" t="s">
+      <c r="AD41" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="AE41" s="51" t="s">
+      <c r="AE41" s="43" t="s">
         <v>103</v>
       </c>
       <c r="AF41" s="8"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>154</v>
       </c>
@@ -3465,9 +3507,26 @@
       <c r="W42" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X42" s="4"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X42" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y42" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z42" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA42" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB42" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC42" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>155</v>
       </c>
@@ -3505,9 +3564,26 @@
       <c r="W43" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X43" s="4"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X43" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y43" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z43" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA43" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB43" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC43" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>156</v>
       </c>
@@ -3545,9 +3621,26 @@
       <c r="W44" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X44" s="4"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X44" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y44" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z44" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA44" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB44" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC44" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>157</v>
       </c>
@@ -3585,9 +3678,26 @@
       <c r="W45" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X45" s="4"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X45" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y45" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z45" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA45" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB45" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC45" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>158</v>
       </c>
@@ -3625,9 +3735,26 @@
       <c r="W46" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X46" s="4"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X46" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y46" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z46" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA46" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB46" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC46" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>159</v>
       </c>
@@ -3665,9 +3792,26 @@
       <c r="W47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X47" s="4"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="X47" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y47" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z47" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA47" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB47" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC47" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>160</v>
       </c>
@@ -3705,9 +3849,26 @@
       <c r="W48" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X48" s="4"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y48" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z48" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA48" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB48" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC48" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>161</v>
       </c>
@@ -3745,9 +3906,26 @@
       <c r="W49" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X49" s="4"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X49" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y49" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z49" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA49" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB49" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC49" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>162</v>
       </c>
@@ -3785,9 +3963,26 @@
       <c r="W50" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="X50" s="4"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X50" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y50" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z50" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA50" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB50" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC50" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>163</v>
       </c>
@@ -3825,9 +4020,26 @@
         <v>29</v>
       </c>
       <c r="W51" s="32"/>
-      <c r="X51" s="4"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X51" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y51" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z51" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA51" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB51" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC51" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>164</v>
       </c>
@@ -3865,9 +4077,26 @@
         <v>29</v>
       </c>
       <c r="W52" s="32"/>
-      <c r="X52" s="4"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X52" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y52" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA52" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB52" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC52" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>165</v>
       </c>
@@ -3905,9 +4134,26 @@
         <v>29</v>
       </c>
       <c r="W53" s="32"/>
-      <c r="X53" s="4"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X53" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y53" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z53" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA53" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB53" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC53" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>166</v>
       </c>
@@ -3945,9 +4191,26 @@
         <v>29</v>
       </c>
       <c r="W54" s="32"/>
-      <c r="X54" s="4"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X54" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y54" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA54" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB54" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC54" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>167</v>
       </c>
@@ -3985,9 +4248,26 @@
         <v>29</v>
       </c>
       <c r="W55" s="32"/>
-      <c r="X55" s="4"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X55" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y55" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z55" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA55" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB55" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC55" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -4025,9 +4305,26 @@
         <v>29</v>
       </c>
       <c r="W56" s="32"/>
-      <c r="X56" s="4"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X56" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y56" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z56" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA56" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB56" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC56" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
@@ -4065,9 +4362,26 @@
         <v>29</v>
       </c>
       <c r="W57" s="32"/>
-      <c r="X57" s="4"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="X57" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y57" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA57" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB57" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC57" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
       <c r="C58" s="19"/>
@@ -4094,7 +4408,7 @@
       <c r="X58" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="C5:W57"/>
+  <autoFilter ref="C5:W57" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="B3:B4"/>
@@ -4110,24 +4424,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
@@ -4147,7 +4461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>28</v>
       </c>
@@ -4167,7 +4481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
@@ -4187,7 +4501,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
@@ -4207,7 +4521,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
@@ -4227,7 +4541,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
@@ -4247,7 +4561,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>64</v>
       </c>
@@ -4267,7 +4581,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
@@ -4287,7 +4601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
@@ -4307,7 +4621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
@@ -4327,7 +4641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
@@ -4347,7 +4661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>69</v>
       </c>
@@ -4367,7 +4681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>70</v>
       </c>
@@ -4387,7 +4701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>71</v>
       </c>
@@ -4407,7 +4721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>72</v>
       </c>
@@ -4427,7 +4741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
@@ -4447,7 +4761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>74</v>
       </c>
@@ -4467,7 +4781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
@@ -4488,7 +4802,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
@@ -4509,7 +4823,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4530,7 +4844,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
@@ -4551,7 +4865,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
@@ -4572,7 +4886,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
@@ -4593,7 +4907,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
@@ -4614,7 +4928,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
@@ -4635,7 +4949,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
@@ -4656,7 +4970,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
@@ -4677,7 +4991,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
@@ -4698,7 +5012,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
@@ -4719,7 +5033,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
@@ -4740,7 +5054,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
@@ -4761,7 +5075,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
@@ -4782,7 +5096,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
@@ -4803,7 +5117,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
@@ -4824,7 +5138,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
@@ -4845,7 +5159,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>54</v>
       </c>
@@ -4866,7 +5180,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
@@ -4887,7 +5201,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
@@ -4908,7 +5222,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
         <v>79</v>
       </c>
@@ -4928,7 +5242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
@@ -4949,7 +5263,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
@@ -4970,7 +5284,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
         <v>82</v>
       </c>
@@ -4991,7 +5305,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
         <v>83</v>
       </c>
@@ -5012,7 +5326,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
@@ -5033,7 +5347,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
@@ -5054,7 +5368,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
@@ -5075,7 +5389,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>87</v>
       </c>
@@ -5096,7 +5410,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
         <v>89</v>
       </c>
@@ -5117,7 +5431,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>92</v>
       </c>
@@ -5138,7 +5452,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
         <v>93</v>
       </c>
@@ -5159,7 +5473,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
@@ -5180,7 +5494,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
         <v>90</v>
       </c>
@@ -5201,7 +5515,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
         <v>91</v>
       </c>
@@ -5222,10 +5536,10 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B56" s="4"/>
       <c r="C56" s="8"/>
       <c r="D56" s="4"/>
@@ -5234,7 +5548,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B57" s="4"/>
       <c r="C57" s="8"/>
       <c r="D57" s="4"/>
@@ -5243,52 +5557,52 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H59" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G54"/>
+  <autoFilter ref="B2:G54" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.36328125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="45" t="s">
+    <row r="4" spans="4:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="47" t="s">
         <v>172</v>
       </c>
       <c r="E4" s="18"/>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45" t="s">
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="45"/>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.35">
+      <c r="D5" s="47"/>
       <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
@@ -5307,9 +5621,9 @@
       <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="45"/>
-    </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D6" s="12"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5319,7 +5633,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -5329,7 +5643,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -5339,7 +5653,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D9" s="12"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -5349,7 +5663,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D10" s="12"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5359,7 +5673,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D11" s="12"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -5369,7 +5683,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D12" s="12"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -5379,7 +5693,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D13" s="12"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -5389,7 +5703,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D14" s="12"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -5399,7 +5713,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D15" s="12"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -5409,7 +5723,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:11" x14ac:dyDescent="0.35">
       <c r="D16" s="12"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -5419,7 +5733,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -5433,7 +5747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -5447,7 +5761,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -5461,7 +5775,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
@@ -5477,7 +5791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
@@ -5493,7 +5807,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
@@ -5509,7 +5823,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="D23" s="1"/>
@@ -5527,7 +5841,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="D24" s="1"/>
@@ -5545,7 +5859,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="D25" s="1"/>
@@ -5563,7 +5877,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="D26" s="1"/>
@@ -5581,7 +5895,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="D27" s="1"/>
@@ -5593,7 +5907,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="D28" s="1"/>
@@ -5605,7 +5919,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="D29" s="1"/>
@@ -5617,7 +5931,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="D30" s="1"/>
@@ -5629,7 +5943,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="D31" s="1"/>
@@ -5641,7 +5955,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="D32" s="1"/>
@@ -5653,7 +5967,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="D33" s="1"/>
@@ -5665,7 +5979,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="D34" s="1"/>
@@ -5677,7 +5991,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="D35" s="1"/>
@@ -5689,7 +6003,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="D36" s="1"/>
@@ -5701,7 +6015,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="D37" s="1"/>
@@ -5713,7 +6027,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="D38" s="1"/>
@@ -5725,7 +6039,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="D39" s="1"/>
@@ -5737,7 +6051,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="D40" s="1"/>
@@ -5749,7 +6063,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="D41" s="1"/>
@@ -5761,7 +6075,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="D42" s="1"/>
@@ -5773,7 +6087,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="D43" s="1"/>
@@ -5785,7 +6099,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="D44" s="1"/>
